--- a/doc/architecture/Tabela de Opcodes.xlsx
+++ b/doc/architecture/Tabela de Opcodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\'Jadson\Desktop\architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\'Jadson\Documents\GitHub\t02-core-musa\doc\architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,89 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
   <si>
     <t>Instrução</t>
   </si>
   <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>mul</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>divu</t>
-  </si>
-  <si>
-    <t>(cmp)</t>
-  </si>
-  <si>
-    <t>addi</t>
-  </si>
-  <si>
-    <t>subi</t>
-  </si>
-  <si>
-    <t>andi</t>
-  </si>
-  <si>
-    <t>ori</t>
-  </si>
-  <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>jr</t>
-  </si>
-  <si>
-    <t>jalr</t>
-  </si>
-  <si>
-    <t>(jpc)</t>
-  </si>
-  <si>
-    <t>bclt</t>
-  </si>
-  <si>
-    <t>(brfl)</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>ret</t>
-  </si>
-  <si>
-    <t>halt</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
     <t>I</t>
   </si>
   <si>
-    <t>L/S</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
@@ -117,12 +45,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>(not)</t>
-  </si>
-  <si>
     <t>0x014b4820</t>
   </si>
   <si>
@@ -249,9 +171,6 @@
     <t>0100 0101 0000 0101 0000 0000 0000 0001</t>
   </si>
   <si>
-    <t>(break)</t>
-  </si>
-  <si>
     <t>0x0000000d</t>
   </si>
   <si>
@@ -270,9 +189,6 @@
     <t>0000 0011 1110 0000 0000 0000 0000 1000</t>
   </si>
   <si>
-    <t>jal</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -282,12 +198,6 @@
     <t>Break: Termina a execução do programa com exceção.</t>
   </si>
   <si>
-    <t>addi e subi apresentam o mesmo opcode?</t>
-  </si>
-  <si>
-    <t>nop é mesmo do tipo R?</t>
-  </si>
-  <si>
     <t>Layouts</t>
   </si>
   <si>
@@ -306,13 +216,126 @@
     <t>Shamt</t>
   </si>
   <si>
-    <t>Funct</t>
-  </si>
-  <si>
     <t>Immediate</t>
   </si>
   <si>
     <t>Address</t>
+  </si>
+  <si>
+    <t>O NOP é interpretado pelo hardware como um SLL (Tipo R)</t>
+  </si>
+  <si>
+    <t>ADD</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>DIVu</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>JALR</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>ADDi</t>
+  </si>
+  <si>
+    <t>SUBi</t>
+  </si>
+  <si>
+    <t>ANDi</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>ORi</t>
+  </si>
+  <si>
+    <t>BCLT</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t>RET</t>
+  </si>
+  <si>
+    <t>HALT</t>
+  </si>
+  <si>
+    <t>BRFL</t>
+  </si>
+  <si>
+    <t>JAL</t>
+  </si>
+  <si>
+    <t>BREAK</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>JPC</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sobre ADDi e SUBi terem o mesmo Opcode:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Segundo consta, no MIPS a instrução SUBi é realizada com um ADDi e um complemento a2, que sugere o mesmo efeito de uma subtração com imediato.</t>
+    </r>
+  </si>
+  <si>
+    <t>A instrução NOT é realizada com uma NOR entre o valor e 0 (zero).</t>
   </si>
 </sst>
 </file>
@@ -321,7 +344,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="166" formatCode="00000000000000000000000000000000"/>
+    <numFmt numFmtId="165" formatCode="00000000000000000000000000000000"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -554,7 +577,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -569,6 +592,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,34 +631,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -615,28 +647,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -935,52 +958,72 @@
     <col min="7" max="8" width="4.42578125" style="1" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="C1" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="8" t="s">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -988,37 +1031,40 @@
       <c r="F3" s="5">
         <v>100000</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>93</v>
+      <c r="G3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="8" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -1026,38 +1072,29 @@
       <c r="F4" s="5">
         <v>100010</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="I4" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3">
-        <v>6</v>
-      </c>
-      <c r="K4" s="3">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>5</v>
-      </c>
-      <c r="M4" s="3">
-        <v>5</v>
-      </c>
-      <c r="N4" s="3">
-        <v>5</v>
-      </c>
-      <c r="O4" s="3">
-        <v>6</v>
+      <c r="G4" s="28"/>
+      <c r="J4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="8" t="s">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -1065,29 +1102,34 @@
       <c r="F5" s="5">
         <v>11000</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="J5" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="L5" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>94</v>
-      </c>
+      <c r="G5" s="28"/>
+      <c r="I5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="3">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>16</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -1095,34 +1137,23 @@
       <c r="F6" s="5">
         <v>11010</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="I6" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="3">
-        <v>6</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>16</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
+      <c r="G6" s="28"/>
+      <c r="J6" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="8" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -1130,23 +1161,30 @@
       <c r="F7" s="5">
         <v>100100</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="J7" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>95</v>
-      </c>
+      <c r="G7" s="28"/>
+      <c r="I7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3">
+        <v>26</v>
+      </c>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="8" t="s">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -1154,33 +1192,20 @@
       <c r="F8" s="5">
         <v>100101</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="I8" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="3">
-        <v>6</v>
-      </c>
-      <c r="K8" s="3">
-        <v>26</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>30</v>
+      <c r="A9" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -1188,27 +1213,32 @@
       <c r="F9" s="5">
         <v>100111</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>7</v>
+      <c r="A10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -1216,7 +1246,7 @@
       <c r="F10" s="5">
         <v>11011</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="28"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1226,15 +1256,15 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -1242,8 +1272,8 @@
       <c r="F11" s="5">
         <v>1000</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="32"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -1253,17 +1283,17 @@
       <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
+      <c r="A12" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1271,8 +1301,8 @@
       <c r="F12" s="5">
         <v>1001</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="32"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="18"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
@@ -1282,15 +1312,15 @@
       <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="22"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="8" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -1298,131 +1328,147 @@
       <c r="F13" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:15" ht="12.75" customHeight="1">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="8" t="s">
-        <v>9</v>
+      <c r="B15" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E15" s="5">
         <v>1000</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="8" t="s">
-        <v>10</v>
+      <c r="B16" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="E16" s="5">
         <v>1000</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="32"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="B17" s="8" t="s">
-        <v>11</v>
+      <c r="A17" s="17"/>
+      <c r="B17" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <v>1100</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="27"/>
-      <c r="K17" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G17" s="32"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="B18" s="8" t="s">
-        <v>12</v>
+      <c r="A18" s="17"/>
+      <c r="B18" s="16" t="s">
+        <v>82</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="E18" s="5">
         <v>1101</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
     </row>
     <row r="19" spans="1:15" ht="3" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="32"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
@@ -1430,25 +1476,23 @@
       <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E20" s="3">
         <v>100011</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="32"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
@@ -1456,23 +1500,23 @@
       <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="8" t="s">
-        <v>14</v>
+      <c r="A21" s="23"/>
+      <c r="B21" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="E21" s="3">
         <v>101011</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="G21" s="32"/>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
@@ -1480,12 +1524,13 @@
       <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" ht="13.5" customHeight="1">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1493,26 +1538,26 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
         <v>10001</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>3</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1522,26 +1567,26 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="15" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E24" s="13">
         <v>11</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="18"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="38"/>
       <c r="H24" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -1551,16 +1596,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="15" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E25" s="13">
         <v>0</v>
@@ -1568,9 +1613,9 @@
       <c r="F25" s="13">
         <v>1000</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="1" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -1580,16 +1625,16 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="15" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="E26" s="13">
         <v>0</v>
@@ -1597,48 +1642,47 @@
       <c r="F26" s="13">
         <v>1101</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="1:15">
       <c r="B27" s="1"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="B30" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="I26:O26"/>
+  <mergeCells count="13">
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="J2:O2"/>
     <mergeCell ref="G3:G13"/>
     <mergeCell ref="I13:O13"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:O16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="I15:O18"/>
+    <mergeCell ref="I9:O9"/>
+    <mergeCell ref="J1:O1"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="G15:G21"/>
+    <mergeCell ref="I26:O26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1675,7 +1719,7 @@
   <sheetData>
     <row r="3" spans="1:22">
       <c r="A3" s="9" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10">
         <f>SUM(2^B4)</f>
@@ -1764,7 +1808,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B4" s="11">
         <v>20</v>
@@ -1832,7 +1876,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="9" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B6" s="10">
         <f t="shared" ref="B6" si="1">SUM(2^B7)</f>
@@ -1881,7 +1925,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="9" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11">
         <v>31</v>

--- a/doc/architecture/Tabela de Opcodes.xlsx
+++ b/doc/architecture/Tabela de Opcodes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\'Jadson\Documents\GitHub\t02-core-musa\doc\architecture\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\'Jadson\Desktop\architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
   <si>
     <t>Instrução</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>SITE: http://www.binaryhexconverter.com/hex-to-binary-converter</t>
-  </si>
-  <si>
-    <t>Break: Termina a execução do programa com exceção.</t>
   </si>
   <si>
     <t>Layouts</t>
@@ -337,6 +334,26 @@
   <si>
     <t>A instrução NOT é realizada com uma NOR entre o valor e 0 (zero).</t>
   </si>
+  <si>
+    <t>Break: Termina a execução do programa com exceção. (Tipo R)</t>
+  </si>
+  <si>
+    <t>JR seria usado com o registrador $ra, modo distinto do outro JR. (Tipo R)</t>
+  </si>
+  <si>
+    <t>Chamada de subrotina: jal label
+- desvia para o label da subrotina.
+- copia o PC para o registrador RA</t>
+  </si>
+  <si>
+    <t>$ra = Registrador especial que guarda o endereço de retorno.</t>
+  </si>
+  <si>
+    <t>J ou R</t>
+  </si>
+  <si>
+    <t>Nossas instruções tipo J feitas com tipo R no mars/mips:</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +363,7 @@
     <numFmt numFmtId="164" formatCode="000000"/>
     <numFmt numFmtId="165" formatCode="00000000000000000000000000000000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +412,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,9 +621,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -613,37 +635,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,14 +680,20 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -941,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -955,7 +989,8 @@
     <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
     <col min="9" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="1"/>
@@ -964,21 +999,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
+      <c r="J1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
     </row>
     <row r="2" spans="1:15">
       <c r="B2" s="2" t="s">
@@ -996,28 +1031,28 @@
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="N2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="22" t="s">
-        <v>94</v>
+      <c r="O2" s="21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="B3" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -1031,10 +1066,10 @@
       <c r="F3" s="5">
         <v>100000</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="3">
@@ -1058,7 +1093,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -1072,23 +1107,23 @@
       <c r="F4" s="5">
         <v>100010</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="J4" s="22" t="s">
+      <c r="G4" s="34"/>
+      <c r="J4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="L4" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>63</v>
+      <c r="M4" s="21" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -1102,8 +1137,8 @@
       <c r="F5" s="5">
         <v>11000</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="I5" s="21" t="s">
+      <c r="G5" s="34"/>
+      <c r="I5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="J5" s="3">
@@ -1118,12 +1153,12 @@
       <c r="M5" s="3">
         <v>16</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>22</v>
@@ -1137,17 +1172,17 @@
       <c r="F6" s="5">
         <v>11010</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="J6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>64</v>
+      <c r="G6" s="34"/>
+      <c r="J6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
@@ -1161,8 +1196,8 @@
       <c r="F7" s="5">
         <v>100100</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="I7" s="21" t="s">
+      <c r="G7" s="34"/>
+      <c r="I7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="3">
@@ -1171,14 +1206,14 @@
       <c r="K7" s="3">
         <v>26</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="1:15">
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
@@ -1192,14 +1227,14 @@
       <c r="F8" s="5">
         <v>100101</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -1213,26 +1248,26 @@
       <c r="F9" s="5">
         <v>100111</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>23</v>
@@ -1246,7 +1281,7 @@
       <c r="F10" s="5">
         <v>11011</v>
       </c>
-      <c r="G10" s="28"/>
+      <c r="G10" s="35"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
@@ -1256,281 +1291,297 @@
       <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="17"/>
+      <c r="B12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <v>1001</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+        <v>1000</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="17"/>
-      <c r="B13" s="8" t="s">
-        <v>76</v>
+      <c r="A13" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
       <c r="F13" s="5">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-    </row>
-    <row r="14" spans="1:15" ht="12.75" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="K14" s="6"/>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="40"/>
+      <c r="H14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="40"/>
+      <c r="H15" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1101</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+    </row>
+    <row r="17" spans="1:15" ht="12.75" customHeight="1">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="B18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E18" s="5">
         <v>1000</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="B16" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="32"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="17"/>
-      <c r="B17" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1100</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="32"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="17"/>
-      <c r="B18" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1101</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-    </row>
-    <row r="19" spans="1:15" ht="3" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="32"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
+      <c r="G18" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="B19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="23"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100011</v>
+        <v>40</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1100</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="32"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
+      <c r="G20" s="31"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="23"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="16" t="s">
         <v>81</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="3">
-        <v>101011</v>
+        <v>41</v>
+      </c>
+      <c r="E21" s="5">
+        <v>1101</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="32"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-    </row>
-    <row r="22" spans="1:15" ht="13.5" customHeight="1">
+      <c r="G21" s="31"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+    </row>
+    <row r="22" spans="1:15" ht="3" customHeight="1">
       <c r="A22" s="17"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="31"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
@@ -1538,27 +1589,23 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>83</v>
+      <c r="A23" s="22"/>
+      <c r="B23" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="5">
-        <v>10001</v>
-      </c>
-      <c r="F23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3">
+        <v>100011</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="37" t="s">
-        <v>3</v>
-      </c>
+      <c r="G23" s="31"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
@@ -1566,57 +1613,37 @@
       <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="13">
-        <v>11</v>
-      </c>
-      <c r="F24" s="14" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3">
+        <v>101011</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="38"/>
-      <c r="H24" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="G24" s="31"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="13">
-        <v>0</v>
-      </c>
-      <c r="F25" s="13">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="1" t="s">
-        <v>54</v>
-      </c>
+    <row r="25" spans="1:15" ht="13.5" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
@@ -1624,65 +1651,125 @@
       <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="13">
-        <v>0</v>
-      </c>
-      <c r="F26" s="13">
-        <v>1101</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="1" t="s">
+      <c r="B26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10001</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="13">
+        <v>11</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="35"/>
+      <c r="H27" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="B27" s="1"/>
+      <c r="I27" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+    </row>
+    <row r="33" spans="9:15">
+      <c r="I33" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="19">
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G3:G10"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="G18:G24"/>
     <mergeCell ref="B30:F30"/>
-    <mergeCell ref="G3:G13"/>
-    <mergeCell ref="I13:O13"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:O18"/>
+    <mergeCell ref="I14:O14"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:O21"/>
     <mergeCell ref="I9:O9"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="I26:O26"/>
+    <mergeCell ref="I16:O16"/>
+    <mergeCell ref="I15:O15"/>
+    <mergeCell ref="I27:O29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
